--- a/PROJEKT/DokumentacjaIO.xlsx
+++ b/PROJEKT/DokumentacjaIO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Tydzień</t>
   </si>
@@ -31,10 +31,13 @@
     <t>Kamil Żak</t>
   </si>
   <si>
-    <t>Inżynieria Oprogramowania - Kalendarz</t>
+    <t>Komentarz</t>
   </si>
   <si>
-    <t>Ogólnie</t>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Inżynieria Oprogramowania 2 - Kalendarz</t>
   </si>
 </sst>
 </file>
@@ -58,25 +61,218 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,123 +578,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
-    </row>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PROJEKT/DokumentacjaIO.xlsx
+++ b/PROJEKT/DokumentacjaIO.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Tydzień</t>
   </si>
@@ -38,18 +38,56 @@
   </si>
   <si>
     <t>Inżynieria Oprogramowania 2 - Kalendarz</t>
+  </si>
+  <si>
+    <t>działający algorytm</t>
+  </si>
+  <si>
+    <t>zapoznanie się z dokumentacją</t>
+  </si>
+  <si>
+    <t>wstępna implementacja i projektowanie komunikacji (Task Solver) (3h)</t>
+  </si>
+  <si>
+    <t>testowanie komunikacji (Task Solver) (3h)</t>
+  </si>
+  <si>
+    <t>działająca komunikacja pomiędzy innymi komponentami aplikacji</t>
+  </si>
+  <si>
+    <t>implementacja i integracja algorytmu (Task Solver) (3h)</t>
+  </si>
+  <si>
+    <t>działający Task Solver (3h)</t>
+  </si>
+  <si>
+    <t>championship (3h)</t>
+  </si>
+  <si>
+    <t>testowanie i implementacja  pozostałych funkcjonalności (Task Solver) (3h)</t>
+  </si>
+  <si>
+    <t>testowanie (Task Solver) (3h)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,17 +280,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -263,20 +292,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -292,9 +334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +374,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -404,7 +446,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,266 +623,297 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
+      <c r="B5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
+      <c r="B9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="20">
         <v>9</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
+      <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
